--- a/REGULAR/OJT/NEW DONE/DEL MUNDO, ROSALLE A..xlsx
+++ b/REGULAR/OJT/NEW DONE/DEL MUNDO, ROSALLE A..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDE1331-B9A4-4658-979C-878672D44096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F90DB05-786E-451C-B344-3EBF828C13F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="612" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="479">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1466,6 +1466,12 @@
   </si>
   <si>
     <t>PIO</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>3/24, 4/5/2023</t>
   </si>
 </sst>
 </file>
@@ -1876,6 +1882,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1911,9 +1920,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4280,8 +4286,9 @@
   <dimension ref="A2:K732"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3444" topLeftCell="A688" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B703" sqref="B703"/>
+      <pane ySplit="3444" topLeftCell="A694" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="B704" sqref="B704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4303,64 +4310,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="61"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -4386,18 +4395,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4444,7 +4453,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>70.645999999999987</v>
+        <v>71.895999999999987</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4454,7 +4463,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>73.582999999999998</v>
+        <v>74.832999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19417,7 +19426,7 @@
       <c r="H702" s="43"/>
       <c r="I702" s="51"/>
       <c r="J702" s="12"/>
-      <c r="K702" s="67">
+      <c r="K702" s="55">
         <v>44967</v>
       </c>
     </row>
@@ -19425,19 +19434,25 @@
       <c r="A703" s="40">
         <v>44986</v>
       </c>
-      <c r="B703" s="20"/>
-      <c r="C703" s="13"/>
+      <c r="B703" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C703" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D703" s="39"/>
       <c r="E703" s="9"/>
       <c r="F703" s="20"/>
-      <c r="G703" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G703" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H703" s="39"/>
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
-      <c r="K703" s="20"/>
+      <c r="K703" s="20" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
@@ -20028,17 +20043,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -20119,12 +20134,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/OJT/NEW DONE/DEL MUNDO, ROSALLE A..xlsx
+++ b/REGULAR/OJT/NEW DONE/DEL MUNDO, ROSALLE A..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F90DB05-786E-451C-B344-3EBF828C13F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF17D6-417F-48B1-90CC-C96F0427B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="612" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="479">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3904,8 +3904,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K732" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K732" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K733" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K733" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4283,7 +4283,7 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K732"/>
+  <dimension ref="A2:K733"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3444" topLeftCell="A694" activePane="bottomLeft"/>
@@ -19431,50 +19431,52 @@
       </c>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A703" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B703" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="C703" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D703" s="39"/>
-      <c r="E703" s="9"/>
-      <c r="F703" s="20"/>
-      <c r="G703" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H703" s="39"/>
-      <c r="I703" s="9"/>
-      <c r="J703" s="11"/>
-      <c r="K703" s="20" t="s">
-        <v>478</v>
+      <c r="A703" s="40"/>
+      <c r="B703" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C703" s="13"/>
+      <c r="D703" s="43"/>
+      <c r="E703" s="51"/>
+      <c r="F703" s="15"/>
+      <c r="G703" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H703" s="43"/>
+      <c r="I703" s="51"/>
+      <c r="J703" s="12"/>
+      <c r="K703" s="55">
+        <v>44970</v>
       </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B704" s="20"/>
-      <c r="C704" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B704" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C704" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D704" s="39"/>
       <c r="E704" s="9"/>
       <c r="F704" s="20"/>
-      <c r="G704" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G704" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H704" s="39"/>
       <c r="I704" s="9"/>
       <c r="J704" s="11"/>
-      <c r="K704" s="20"/>
+      <c r="K704" s="20" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19492,7 +19494,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19510,7 +19512,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19528,7 +19530,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19546,7 +19548,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19564,7 +19566,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19582,7 +19584,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19600,7 +19602,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19618,7 +19620,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19636,7 +19638,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19654,7 +19656,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19672,7 +19674,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19690,7 +19692,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19708,7 +19710,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19726,7 +19728,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19744,7 +19746,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19762,7 +19764,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19780,7 +19782,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19798,7 +19800,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19816,7 +19818,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19834,7 +19836,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19852,7 +19854,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19870,7 +19872,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19888,7 +19890,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19906,7 +19908,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19924,7 +19926,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19942,7 +19944,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19960,7 +19962,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19975,6 +19977,24 @@
       <c r="I732" s="9"/>
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A733" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B733" s="20"/>
+      <c r="C733" s="13"/>
+      <c r="D733" s="39"/>
+      <c r="E733" s="9"/>
+      <c r="F733" s="20"/>
+      <c r="G733" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H733" s="39"/>
+      <c r="I733" s="9"/>
+      <c r="J733" s="11"/>
+      <c r="K733" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/DEL MUNDO, ROSALLE A..xlsx
+++ b/REGULAR/OJT/NEW DONE/DEL MUNDO, ROSALLE A..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF17D6-417F-48B1-90CC-C96F0427B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="612" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="612" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="479">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2369,7 +2368,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2411,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2475,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2535,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2601,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2664,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2762,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2821,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +2886,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2929,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,7 +3004,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3191,7 +3190,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3257,7 +3256,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,7 +3314,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3380,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3437,7 +3436,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3511,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3555,7 +3554,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3620,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,7 +3676,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3775,7 +3774,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3838,7 +3837,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3904,26 +3903,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K733" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K733" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K733" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K733"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3935,13 +3934,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3950,14 +3949,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4261,7 +4260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4271,7 +4270,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4279,34 +4278,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K733"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3444" topLeftCell="A694" activePane="bottomLeft"/>
+      <pane ySplit="3450" topLeftCell="A694" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B704" sqref="B704"/>
+      <selection pane="bottomLeft" activeCell="B707" sqref="B707"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4329,7 +4328,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4349,7 +4348,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4371,7 +4370,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4379,7 +4378,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4392,7 +4391,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4409,7 +4408,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4453,7 +4452,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.895999999999987</v>
+        <v>73.145999999999987</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4463,12 +4462,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>74.832999999999998</v>
+        <v>76.082999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -4490,7 +4489,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>45</v>
       </c>
@@ -4508,7 +4507,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34121</v>
       </c>
@@ -4528,7 +4527,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34151</v>
@@ -4549,7 +4548,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A18" si="0">EDATE(A13,1)</f>
         <v>34182</v>
@@ -4570,7 +4569,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>34213</v>
@@ -4591,7 +4590,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>34243</v>
@@ -4612,7 +4611,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>34274</v>
@@ -4633,7 +4632,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>34304</v>
@@ -4652,7 +4651,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>46</v>
       </c>
@@ -4670,7 +4669,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>34335</v>
@@ -4691,7 +4690,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A20,1)</f>
         <v>34366</v>
@@ -4712,7 +4711,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" ref="A22:A31" si="1">EDATE(A21,1)</f>
         <v>34394</v>
@@ -4733,7 +4732,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>34425</v>
@@ -4754,7 +4753,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>34455</v>
@@ -4775,7 +4774,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>34486</v>
@@ -4796,7 +4795,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>34516</v>
@@ -4817,7 +4816,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>34547</v>
@@ -4838,7 +4837,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>34578</v>
@@ -4859,7 +4858,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>34608</v>
@@ -4880,7 +4879,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>34639</v>
@@ -4907,7 +4906,7 @@
         <v>34656</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>34669</v>
@@ -4934,7 +4933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>225</v>
@@ -4954,7 +4953,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>51</v>
       </c>
@@ -4972,7 +4971,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f>EDATE(A31,1)</f>
         <v>34700</v>
@@ -4999,7 +4998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>48</v>
@@ -5021,7 +5020,7 @@
         <v>34701</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>60</v>
@@ -5043,7 +5042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A34,1)</f>
         <v>34731</v>
@@ -5070,7 +5069,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" ref="A38:A47" si="2">EDATE(A37,1)</f>
         <v>34759</v>
@@ -5091,7 +5090,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>34790</v>
@@ -5118,7 +5117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>34820</v>
@@ -5139,7 +5138,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>34851</v>
@@ -5160,7 +5159,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>34881</v>
@@ -5181,7 +5180,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>34912</v>
@@ -5204,7 +5203,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>34943</v>
@@ -5225,7 +5224,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>34973</v>
@@ -5252,7 +5251,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35004</v>
@@ -5273,7 +5272,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35034</v>
@@ -5294,7 +5293,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>52</v>
       </c>
@@ -5312,7 +5311,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>35065</v>
@@ -5333,7 +5332,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A49,1)</f>
         <v>35096</v>
@@ -5360,7 +5359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" ref="A51:A61" si="3">EDATE(A50,1)</f>
         <v>35125</v>
@@ -5381,7 +5380,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>35156</v>
@@ -5402,7 +5401,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="3"/>
         <v>35186</v>
@@ -5429,7 +5428,7 @@
         <v>35206</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>35217</v>
@@ -5456,7 +5455,7 @@
         <v>35242</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>35247</v>
@@ -5477,7 +5476,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>35278</v>
@@ -5504,7 +5503,7 @@
         <v>35283</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>48</v>
@@ -5523,7 +5522,7 @@
         <v>35291</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>69</v>
@@ -5540,7 +5539,7 @@
         <v>35312</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A56,1)</f>
         <v>35309</v>
@@ -5567,7 +5566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>35339</v>
@@ -5594,7 +5593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>35370</v>
@@ -5615,7 +5614,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f>EDATE(A61,1)</f>
         <v>35400</v>
@@ -5642,7 +5641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>48</v>
@@ -5661,7 +5660,7 @@
         <v>35425</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>73</v>
@@ -5678,7 +5677,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>53</v>
       </c>
@@ -5696,7 +5695,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A62,1)</f>
         <v>35431</v>
@@ -5721,7 +5720,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A66,1)</f>
         <v>35462</v>
@@ -5748,7 +5747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" ref="A68:A81" si="4">EDATE(A67,1)</f>
         <v>35490</v>
@@ -5775,7 +5774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>78</v>
@@ -5795,7 +5794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>35521</v>
@@ -5816,7 +5815,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="4"/>
         <v>35551</v>
@@ -5843,7 +5842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>35582</v>
@@ -5864,7 +5863,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="4"/>
         <v>35612</v>
@@ -5891,7 +5890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>60</v>
@@ -5910,7 +5909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>48</v>
@@ -5929,7 +5928,7 @@
         <v>35639</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>35643</v>
@@ -5956,7 +5955,7 @@
         <v>35643</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="4"/>
         <v>35674</v>
@@ -5981,7 +5980,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>48</v>
@@ -6003,7 +6002,7 @@
         <v>35691</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f>EDATE(A77,1)</f>
         <v>35704</v>
@@ -6030,7 +6029,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>35735</v>
@@ -6051,7 +6050,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>35765</v>
@@ -6072,7 +6071,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>54</v>
       </c>
@@ -6090,7 +6089,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>35796</v>
@@ -6117,7 +6116,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f>EDATE(A83,1)</f>
         <v>35827</v>
@@ -6144,7 +6143,7 @@
         <v>35832</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" ref="A85:A91" si="5">EDATE(A84,1)</f>
         <v>35855</v>
@@ -6171,7 +6170,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="5"/>
         <v>35886</v>
@@ -6192,7 +6191,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="5"/>
         <v>35916</v>
@@ -6219,7 +6218,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="5"/>
         <v>35947</v>
@@ -6240,7 +6239,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="5"/>
         <v>35977</v>
@@ -6267,7 +6266,7 @@
         <v>35999</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>36008</v>
@@ -6288,7 +6287,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="5"/>
         <v>36039</v>
@@ -6309,7 +6308,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>69</v>
@@ -6326,7 +6325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>48</v>
@@ -6345,7 +6344,7 @@
         <v>36060</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>92</v>
@@ -6367,7 +6366,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A91,1)</f>
         <v>36069</v>
@@ -6394,7 +6393,7 @@
         <v>36077</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>93</v>
@@ -6414,7 +6413,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="50"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>36100</v>
@@ -6441,7 +6440,7 @@
         <v>36103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>94</v>
@@ -6461,7 +6460,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>36130</v>
@@ -6488,7 +6487,7 @@
         <v>36140</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>76</v>
@@ -6507,7 +6506,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>95</v>
@@ -6524,7 +6523,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>47</v>
@@ -6544,7 +6543,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>55</v>
       </c>
@@ -6562,7 +6561,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A99,1)</f>
         <v>36161</v>
@@ -6585,7 +6584,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>97</v>
@@ -6605,7 +6604,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>36192</v>
@@ -6632,7 +6631,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>100</v>
@@ -6652,7 +6651,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f>EDATE(A106,1)</f>
         <v>36220</v>
@@ -6679,7 +6678,7 @@
         <v>36221</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>101</v>
@@ -6699,7 +6698,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>36251</v>
@@ -6726,7 +6725,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A121" si="6">EDATE(A110,1)</f>
         <v>36281</v>
@@ -6753,7 +6752,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>36312</v>
@@ -6774,7 +6773,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>36342</v>
@@ -6801,7 +6800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>70</v>
@@ -6823,7 +6822,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>36373</v>
@@ -6850,7 +6849,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>110</v>
@@ -6870,7 +6869,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A115,1)</f>
         <v>36404</v>
@@ -6891,7 +6890,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>48</v>
@@ -6910,7 +6909,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>111</v>
@@ -6927,7 +6926,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f>EDATE(A117,1)</f>
         <v>36434</v>
@@ -6952,7 +6951,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="6"/>
         <v>36465</v>
@@ -6979,7 +6978,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>69</v>
@@ -6999,7 +6998,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>115</v>
@@ -7019,7 +7018,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>36495</v>
@@ -7044,7 +7043,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>117</v>
@@ -7064,7 +7063,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>56</v>
       </c>
@@ -7082,7 +7081,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A124,1)</f>
         <v>36526</v>
@@ -7107,7 +7106,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>48</v>
@@ -7126,7 +7125,7 @@
         <v>36530</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>119</v>
@@ -7143,7 +7142,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A127,1)</f>
         <v>36557</v>
@@ -7170,7 +7169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>48</v>
@@ -7189,7 +7188,7 @@
         <v>36565</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>121</v>
@@ -7206,7 +7205,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f>EDATE(A130,1)</f>
         <v>36586</v>
@@ -7233,7 +7232,7 @@
         <v>36602</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>122</v>
@@ -7253,7 +7252,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="50"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A133,1)</f>
         <v>36617</v>
@@ -7278,7 +7277,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" ref="A136:A139" si="7">EDATE(A135,1)</f>
         <v>36647</v>
@@ -7305,7 +7304,7 @@
         <v>36663</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>124</v>
@@ -7325,7 +7324,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>36678</v>
@@ -7350,7 +7349,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>36708</v>
@@ -7377,7 +7376,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>128</v>
@@ -7397,7 +7396,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>36739</v>
@@ -7424,7 +7423,7 @@
         <v>36739</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>126</v>
@@ -7443,7 +7442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>69</v>
@@ -7460,7 +7459,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>115</v>
@@ -7480,7 +7479,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f>EDATE(A141,1)</f>
         <v>36770</v>
@@ -7505,7 +7504,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A145,1)</f>
         <v>36800</v>
@@ -7532,7 +7531,7 @@
         <v>36803</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>48</v>
@@ -7551,7 +7550,7 @@
         <v>36810</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>62</v>
@@ -7570,7 +7569,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>126</v>
@@ -7589,7 +7588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>134</v>
@@ -7606,7 +7605,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A146,1)</f>
         <v>36831</v>
@@ -7627,7 +7626,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f>EDATE(A151,1)</f>
         <v>36861</v>
@@ -7652,7 +7651,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>57</v>
       </c>
@@ -7670,7 +7669,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>36892</v>
@@ -7697,7 +7696,7 @@
         <v>36893</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>48</v>
@@ -7716,7 +7715,7 @@
         <v>36910</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>69</v>
@@ -7733,7 +7732,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A154,1)</f>
         <v>36923</v>
@@ -7758,7 +7757,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>76</v>
@@ -7777,7 +7776,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>36951</v>
@@ -7798,7 +7797,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="50"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>48</v>
@@ -7817,7 +7816,7 @@
         <v>36956</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>36982</v>
@@ -7844,7 +7843,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>140</v>
@@ -7864,7 +7863,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f>EDATE(A161,1)</f>
         <v>37012</v>
@@ -7891,7 +7890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>142</v>
@@ -7911,7 +7910,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>37043</v>
@@ -7936,7 +7935,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" ref="A166:A171" si="8">EDATE(A165,1)</f>
         <v>37073</v>
@@ -7957,7 +7956,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="8"/>
         <v>37104</v>
@@ -7984,7 +7983,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>48</v>
@@ -8006,7 +8005,7 @@
         <v>37131</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A167,1)</f>
         <v>37135</v>
@@ -8031,7 +8030,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="8"/>
         <v>37165</v>
@@ -8056,7 +8055,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="8"/>
         <v>37196</v>
@@ -8077,7 +8076,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>37226</v>
@@ -8104,7 +8103,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
         <v>147</v>
       </c>
@@ -8122,7 +8121,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>37257</v>
@@ -8149,7 +8148,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>48</v>
@@ -8168,7 +8167,7 @@
         <v>37273</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>152</v>
@@ -8185,7 +8184,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>69</v>
@@ -8202,7 +8201,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A174,1)</f>
         <v>37288</v>
@@ -8229,7 +8228,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>155</v>
@@ -8246,7 +8245,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>69</v>
@@ -8263,7 +8262,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>108</v>
@@ -8282,7 +8281,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f>EDATE(A178,1)</f>
         <v>37316</v>
@@ -8303,7 +8302,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" ref="A183:A191" si="9">EDATE(A182,1)</f>
         <v>37347</v>
@@ -8324,7 +8323,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="9"/>
         <v>37377</v>
@@ -8345,7 +8344,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="9"/>
         <v>37408</v>
@@ -8366,7 +8365,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="9"/>
         <v>37438</v>
@@ -8393,7 +8392,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>69</v>
@@ -8410,7 +8409,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f>EDATE(A186,1)</f>
         <v>37469</v>
@@ -8431,7 +8430,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="9"/>
         <v>37500</v>
@@ -8452,7 +8451,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="9"/>
         <v>37530</v>
@@ -8479,7 +8478,7 @@
         <v>37533</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="9"/>
         <v>37561</v>
@@ -8500,7 +8499,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A191,1)</f>
         <v>37591</v>
@@ -8527,7 +8526,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="48" t="s">
         <v>148</v>
       </c>
@@ -8545,7 +8544,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f>EDATE(A192,1)</f>
         <v>37622</v>
@@ -8566,7 +8565,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>69</v>
@@ -8583,7 +8582,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>70</v>
@@ -8607,7 +8606,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A194,1)</f>
         <v>37653</v>
@@ -8632,7 +8631,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" ref="A198:A208" si="10">EDATE(A197,1)</f>
         <v>37681</v>
@@ -8653,7 +8652,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="10"/>
         <v>37712</v>
@@ -8674,7 +8673,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="10"/>
         <v>37742</v>
@@ -8695,7 +8694,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="10"/>
         <v>37773</v>
@@ -8716,7 +8715,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="10"/>
         <v>37803</v>
@@ -8743,7 +8742,7 @@
         <v>37838</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="10"/>
         <v>37834</v>
@@ -8768,7 +8767,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f t="shared" si="10"/>
         <v>37865</v>
@@ -8795,7 +8794,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>48</v>
@@ -8814,7 +8813,7 @@
         <v>37893</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>124</v>
@@ -8831,7 +8830,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A204,1)</f>
         <v>37895</v>
@@ -8856,7 +8855,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="10"/>
         <v>37926</v>
@@ -8883,7 +8882,7 @@
         <v>37930</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>58</v>
@@ -8902,7 +8901,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>48</v>
@@ -8921,7 +8920,7 @@
         <v>37945</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>167</v>
@@ -8938,7 +8937,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A208,1)</f>
         <v>37956</v>
@@ -8963,7 +8962,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>169</v>
@@ -8980,7 +8979,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="48" t="s">
         <v>149</v>
       </c>
@@ -8995,7 +8994,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A212,1)</f>
         <v>37987</v>
@@ -9016,7 +9015,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" ref="A216:A241" si="11">EDATE(A215,1)</f>
         <v>38018</v>
@@ -9043,7 +9042,7 @@
         <v>38037</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>170</v>
@@ -9060,7 +9059,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A216,1)</f>
         <v>38047</v>
@@ -9087,7 +9086,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>62</v>
@@ -9106,7 +9105,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>60</v>
@@ -9125,7 +9124,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>48</v>
@@ -9144,7 +9143,7 @@
         <v>38054</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>70</v>
@@ -9163,7 +9162,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>69</v>
@@ -9180,7 +9179,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>176</v>
@@ -9197,7 +9196,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A218,1)</f>
         <v>38078</v>
@@ -9224,7 +9223,7 @@
         <v>38092</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>177</v>
@@ -9241,7 +9240,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A225,1)</f>
         <v>38108</v>
@@ -9268,7 +9267,7 @@
         <v>38124</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>178</v>
@@ -9285,7 +9284,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>38139</v>
@@ -9312,7 +9311,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>48</v>
@@ -9331,7 +9330,7 @@
         <v>38145</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>180</v>
@@ -9348,7 +9347,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A229,1)</f>
         <v>38169</v>
@@ -9373,7 +9372,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>69</v>
@@ -9390,7 +9389,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>50</v>
@@ -9409,7 +9408,7 @@
         <v>38210</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>182</v>
@@ -9426,7 +9425,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A232,1)</f>
         <v>38200</v>
@@ -9453,7 +9452,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>62</v>
@@ -9472,7 +9471,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>48</v>
@@ -9491,7 +9490,7 @@
         <v>38223</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>185</v>
@@ -9508,7 +9507,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="50"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>38231</v>
@@ -9533,7 +9532,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="11"/>
         <v>38261</v>
@@ -9554,7 +9553,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>48</v>
@@ -9573,7 +9572,7 @@
         <v>38274</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>187</v>
@@ -9590,7 +9589,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f>EDATE(A241,1)</f>
         <v>38292</v>
@@ -9614,7 +9613,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>190</v>
@@ -9631,7 +9630,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>48</v>
@@ -9650,7 +9649,7 @@
         <v>38335</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f>EDATE(A244,1)</f>
         <v>38322</v>
@@ -9675,7 +9674,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="48" t="s">
         <v>150</v>
       </c>
@@ -9690,7 +9689,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f>EDATE(A247,1)</f>
         <v>38353</v>
@@ -9711,7 +9710,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>69</v>
@@ -9728,7 +9727,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>48</v>
@@ -9747,7 +9746,7 @@
         <v>38380</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>193</v>
@@ -9764,7 +9763,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="50"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f>EDATE(A249,1)</f>
         <v>38384</v>
@@ -9785,7 +9784,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>48</v>
@@ -9804,7 +9803,7 @@
         <v>38401</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>48</v>
@@ -9823,7 +9822,7 @@
         <v>38393</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>194</v>
@@ -9840,7 +9839,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A253,1)</f>
         <v>38412</v>
@@ -9867,7 +9866,7 @@
         <v>38418</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>48</v>
@@ -9886,7 +9885,7 @@
         <v>38422</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>195</v>
@@ -9903,7 +9902,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="50"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>38443</v>
@@ -9928,7 +9927,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" ref="A261:A271" si="12">EDATE(A260,1)</f>
         <v>38473</v>
@@ -9953,7 +9952,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="12"/>
         <v>38504</v>
@@ -9980,7 +9979,7 @@
         <v>38518</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>48</v>
@@ -9999,7 +9998,7 @@
         <v>38533</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>198</v>
@@ -10016,7 +10015,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A262,1)</f>
         <v>38534</v>
@@ -10041,7 +10040,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="12"/>
         <v>38565</v>
@@ -10068,7 +10067,7 @@
         <v>38569</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>200</v>
@@ -10087,7 +10086,7 @@
         <v>38574</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>69</v>
@@ -10104,7 +10103,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>201</v>
@@ -10121,7 +10120,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A266,1)</f>
         <v>38596</v>
@@ -10146,7 +10145,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="12"/>
         <v>38626</v>
@@ -10173,7 +10172,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>204</v>
@@ -10190,7 +10189,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="50"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f>EDATE(A271,1)</f>
         <v>38657</v>
@@ -10217,7 +10216,7 @@
         <v>38686</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>205</v>
@@ -10234,7 +10233,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>38687</v>
@@ -10259,7 +10258,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>206</v>
@@ -10276,7 +10275,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="48" t="s">
         <v>188</v>
       </c>
@@ -10294,7 +10293,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f>EDATE(A275,1)</f>
         <v>38718</v>
@@ -10321,7 +10320,7 @@
         <v>38742</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>206</v>
@@ -10341,7 +10340,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="50"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>38749</v>
@@ -10366,7 +10365,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>208</v>
@@ -10383,7 +10382,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>38777</v>
@@ -10410,7 +10409,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>62</v>
@@ -10429,7 +10428,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>48</v>
@@ -10448,7 +10447,7 @@
         <v>38807</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>211</v>
@@ -10465,7 +10464,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A282,1)</f>
         <v>38808</v>
@@ -10492,7 +10491,7 @@
         <v>38814</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>108</v>
@@ -10511,7 +10510,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>62</v>
@@ -10530,7 +10529,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>62</v>
@@ -10549,7 +10548,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>215</v>
@@ -10566,7 +10565,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A286,1)</f>
         <v>38838</v>
@@ -10593,7 +10592,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>216</v>
@@ -10610,7 +10609,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="50"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>38869</v>
@@ -10635,7 +10634,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>218</v>
@@ -10652,7 +10651,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A293,1)</f>
         <v>38899</v>
@@ -10679,7 +10678,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>220</v>
@@ -10696,7 +10695,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A295,1)</f>
         <v>38930</v>
@@ -10721,7 +10720,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>222</v>
@@ -10738,7 +10737,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>38961</v>
@@ -10763,7 +10762,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" ref="A300" si="13">EDATE(A299,1)</f>
         <v>38991</v>
@@ -10790,7 +10789,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>224</v>
@@ -10807,7 +10806,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>39022</v>
@@ -10832,7 +10831,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>226</v>
@@ -10849,7 +10848,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A302,1)</f>
         <v>39052</v>
@@ -10874,7 +10873,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>227</v>
@@ -10894,7 +10893,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
         <v>228</v>
       </c>
@@ -10912,7 +10911,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A304,1)</f>
         <v>39083</v>
@@ -10937,7 +10936,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f>EDATE(A307,1)</f>
         <v>39114</v>
@@ -10964,7 +10963,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>230</v>
@@ -10981,7 +10980,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="50"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A308,1)</f>
         <v>39142</v>
@@ -11008,7 +11007,7 @@
         <v>39160</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>185</v>
@@ -11025,7 +11024,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>39173</v>
@@ -11050,7 +11049,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" ref="A313:A317" si="14">EDATE(A312,1)</f>
         <v>39203</v>
@@ -11077,7 +11076,7 @@
         <v>39214</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>69</v>
@@ -11094,7 +11093,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>233</v>
@@ -11111,7 +11110,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="50"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A313,1)</f>
         <v>39234</v>
@@ -11136,7 +11135,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="14"/>
         <v>39264</v>
@@ -11163,7 +11162,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>236</v>
@@ -11180,7 +11179,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>48</v>
@@ -11199,7 +11198,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f>EDATE(A317,1)</f>
         <v>39295</v>
@@ -11226,7 +11225,7 @@
         <v>39317</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>69</v>
@@ -11243,7 +11242,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>48</v>
@@ -11262,7 +11261,7 @@
         <v>39323</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>237</v>
@@ -11279,7 +11278,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A320,1)</f>
         <v>39326</v>
@@ -11304,7 +11303,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>48</v>
@@ -11321,7 +11320,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>239</v>
@@ -11338,7 +11337,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A324,1)</f>
         <v>39356</v>
@@ -11365,7 +11364,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f>EDATE(A327,1)</f>
         <v>39387</v>
@@ -11392,7 +11391,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>48</v>
@@ -11411,7 +11410,7 @@
         <v>39415</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>39417</v>
@@ -11438,7 +11437,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>48</v>
@@ -11460,7 +11459,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="48" t="s">
         <v>243</v>
       </c>
@@ -11478,7 +11477,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A330,1)</f>
         <v>39448</v>
@@ -11503,7 +11502,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>245</v>
@@ -11523,7 +11522,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A333,1)</f>
         <v>39479</v>
@@ -11550,7 +11549,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>247</v>
@@ -11570,7 +11569,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>39508</v>
@@ -11595,7 +11594,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f>EDATE(A337,1)</f>
         <v>39539</v>
@@ -11616,7 +11615,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" ref="A339" si="15">EDATE(A338,1)</f>
         <v>39569</v>
@@ -11641,7 +11640,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>48</v>
@@ -11660,7 +11659,7 @@
         <v>39587</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>250</v>
@@ -11677,7 +11676,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A339,1)</f>
         <v>39600</v>
@@ -11704,7 +11703,7 @@
         <v>39612</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>251</v>
@@ -11721,7 +11720,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f>EDATE(A342,1)</f>
         <v>39630</v>
@@ -11748,7 +11747,7 @@
         <v>39647</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>252</v>
@@ -11765,7 +11764,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A344,1)</f>
         <v>39661</v>
@@ -11792,7 +11791,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>48</v>
@@ -11811,7 +11810,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>69</v>
@@ -11828,7 +11827,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>253</v>
@@ -11845,7 +11844,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f>EDATE(A346,1)</f>
         <v>39692</v>
@@ -11872,7 +11871,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>48</v>
@@ -11891,7 +11890,7 @@
         <v>39723</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>256</v>
@@ -11908,7 +11907,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f>EDATE(A350,1)</f>
         <v>39722</v>
@@ -11935,7 +11934,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>257</v>
@@ -11952,7 +11951,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>39753</v>
@@ -11979,7 +11978,7 @@
         <v>39779</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>48</v>
@@ -11998,7 +11997,7 @@
         <v>39769</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>48</v>
@@ -12017,7 +12016,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>258</v>
@@ -12034,7 +12033,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="50"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f>EDATE(A355,1)</f>
         <v>39783</v>
@@ -12061,7 +12060,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>48</v>
@@ -12083,7 +12082,7 @@
         <v>39801</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>259</v>
@@ -12103,7 +12102,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="48" t="s">
         <v>261</v>
       </c>
@@ -12121,7 +12120,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A359,1)</f>
         <v>39814</v>
@@ -12146,7 +12145,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>264</v>
@@ -12163,7 +12162,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f>EDATE(A363,1)</f>
         <v>39845</v>
@@ -12190,7 +12189,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>266</v>
@@ -12212,7 +12211,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f>EDATE(A365,1)</f>
         <v>39873</v>
@@ -12234,7 +12233,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>69</v>
@@ -12251,7 +12250,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>269</v>
@@ -12268,7 +12267,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A367,1)</f>
         <v>39904</v>
@@ -12293,7 +12292,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" ref="A371:A384" si="16">EDATE(A370,1)</f>
         <v>39934</v>
@@ -12318,7 +12317,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="16"/>
         <v>39965</v>
@@ -12343,7 +12342,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="16"/>
         <v>39995</v>
@@ -12370,7 +12369,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>70</v>
@@ -12389,7 +12388,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>274</v>
@@ -12406,7 +12405,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A373,1)</f>
         <v>40026</v>
@@ -12433,7 +12432,7 @@
         <v>40043</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>69</v>
@@ -12450,7 +12449,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>278</v>
@@ -12467,7 +12466,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A376,1)</f>
         <v>40057</v>
@@ -12492,7 +12491,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="16"/>
         <v>40087</v>
@@ -12519,7 +12518,7 @@
         <v>40095</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>48</v>
@@ -12538,7 +12537,7 @@
         <v>40096</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>280</v>
@@ -12555,7 +12554,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f>EDATE(A380,1)</f>
         <v>40118</v>
@@ -12580,7 +12579,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="16"/>
         <v>40148</v>
@@ -12607,7 +12606,7 @@
         <v>40151</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>62</v>
@@ -12626,7 +12625,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>200</v>
@@ -12645,7 +12644,7 @@
         <v>40168</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>225</v>
@@ -12662,7 +12661,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>283</v>
@@ -12679,7 +12678,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>262</v>
       </c>
@@ -12697,7 +12696,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f>EDATE(A384,1)</f>
         <v>40179</v>
@@ -12724,7 +12723,7 @@
         <v>40196</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>284</v>
@@ -12741,7 +12740,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f>EDATE(A390,1)</f>
         <v>40210</v>
@@ -12768,7 +12767,7 @@
         <v>40205</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>48</v>
@@ -12787,7 +12786,7 @@
         <v>40224</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>285</v>
@@ -12806,7 +12805,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>48</v>
@@ -12825,7 +12824,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>287</v>
@@ -12842,7 +12841,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A392,1)</f>
         <v>40238</v>
@@ -12867,7 +12866,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>62</v>
@@ -12889,7 +12888,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>291</v>
@@ -12906,7 +12905,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A397,1)</f>
         <v>40269</v>
@@ -12931,7 +12930,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" ref="A401:A413" si="17">EDATE(A400,1)</f>
         <v>40299</v>
@@ -12956,7 +12955,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f t="shared" si="17"/>
         <v>40330</v>
@@ -12983,7 +12982,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>48</v>
@@ -13002,7 +13001,7 @@
         <v>40340</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>293</v>
@@ -13019,7 +13018,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A402,1)</f>
         <v>40360</v>
@@ -13044,7 +13043,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" si="17"/>
         <v>40391</v>
@@ -13071,7 +13070,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>69</v>
@@ -13088,7 +13087,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>295</v>
@@ -13105,7 +13104,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A406,1)</f>
         <v>40422</v>
@@ -13132,7 +13131,7 @@
         <v>40429</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>296</v>
@@ -13149,7 +13148,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>40452</v>
@@ -13174,7 +13173,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A411,1)</f>
         <v>40483</v>
@@ -13199,7 +13198,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f t="shared" si="17"/>
         <v>40513</v>
@@ -13226,7 +13225,7 @@
         <v>40518</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>116</v>
@@ -13248,7 +13247,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>300</v>
@@ -13268,7 +13267,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="48" t="s">
         <v>302</v>
       </c>
@@ -13286,7 +13285,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f>EDATE(A413,1)</f>
         <v>40544</v>
@@ -13311,7 +13310,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>303</v>
@@ -13328,7 +13327,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A417,1)</f>
         <v>40575</v>
@@ -13355,7 +13354,7 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -13374,7 +13373,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>304</v>
@@ -13391,7 +13390,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f>EDATE(A419,1)</f>
         <v>40603</v>
@@ -13416,7 +13415,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>69</v>
@@ -13433,7 +13432,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>305</v>
@@ -13450,7 +13449,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A422,1)</f>
         <v>40634</v>
@@ -13475,7 +13474,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" ref="A426:A430" si="18">EDATE(A425,1)</f>
         <v>40664</v>
@@ -13500,7 +13499,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" si="18"/>
         <v>40695</v>
@@ -13527,7 +13526,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>310</v>
@@ -13544,7 +13543,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A427,1)</f>
         <v>40725</v>
@@ -13569,7 +13568,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f t="shared" si="18"/>
         <v>40756</v>
@@ -13594,7 +13593,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>200</v>
@@ -13613,7 +13612,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>313</v>
@@ -13630,7 +13629,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="50"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f>EDATE(A430,1)</f>
         <v>40787</v>
@@ -13657,7 +13656,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>112</v>
@@ -13674,7 +13673,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f>EDATE(A433,1)</f>
         <v>40817</v>
@@ -13701,7 +13700,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>316</v>
@@ -13718,7 +13717,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>40848</v>
@@ -13745,7 +13744,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>62</v>
@@ -13764,7 +13763,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>225</v>
@@ -13781,7 +13780,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>318</v>
@@ -13798,7 +13797,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f>EDATE(A437,1)</f>
         <v>40878</v>
@@ -13823,7 +13822,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="48" t="s">
         <v>320</v>
       </c>
@@ -13841,7 +13840,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f>EDATE(A441,1)</f>
         <v>40909</v>
@@ -13866,7 +13865,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>321</v>
@@ -13883,7 +13882,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f>EDATE(A443,1)</f>
         <v>40940</v>
@@ -13910,7 +13909,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>62</v>
@@ -13929,7 +13928,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>48</v>
@@ -13948,7 +13947,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>323</v>
@@ -13965,7 +13964,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f>EDATE(A445,1)</f>
         <v>40969</v>
@@ -13992,7 +13991,7 @@
         <v>40980</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>325</v>
@@ -14009,7 +14008,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f>EDATE(A449,1)</f>
         <v>41000</v>
@@ -14034,7 +14033,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" ref="A452" si="19">EDATE(A451,1)</f>
         <v>41030</v>
@@ -14061,7 +14060,7 @@
         <v>41059</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>327</v>
@@ -14078,7 +14077,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="50"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>41061</v>
@@ -14105,7 +14104,7 @@
         <v>41082</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>328</v>
@@ -14122,7 +14121,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>41091</v>
@@ -14149,7 +14148,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>329</v>
@@ -14166,7 +14165,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f>EDATE(A456,1)</f>
         <v>41122</v>
@@ -14193,7 +14192,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>69</v>
@@ -14210,7 +14209,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>333</v>
@@ -14227,7 +14226,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <f>EDATE(A458,1)</f>
         <v>41153</v>
@@ -14254,7 +14253,7 @@
         <v>41173</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>62</v>
@@ -14273,7 +14272,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>334</v>
@@ -14290,7 +14289,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f>EDATE(A461,1)</f>
         <v>41183</v>
@@ -14317,7 +14316,7 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>126</v>
@@ -14336,7 +14335,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>336</v>
@@ -14353,7 +14352,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f>EDATE(A464,1)</f>
         <v>41214</v>
@@ -14378,7 +14377,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EDATE(A467,1)</f>
         <v>41244</v>
@@ -14401,7 +14400,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>47</v>
@@ -14421,7 +14420,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>338</v>
@@ -14441,7 +14440,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="48" t="s">
         <v>340</v>
       </c>
@@ -14459,7 +14458,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f>EDATE(A468,1)</f>
         <v>41275</v>
@@ -14482,7 +14481,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>341</v>
@@ -14497,7 +14496,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>41306</v>
@@ -14524,7 +14523,7 @@
         <v>41313</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>69</v>
@@ -14541,7 +14540,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>48</v>
@@ -14560,7 +14559,7 @@
         <v>41330</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>342</v>
@@ -14577,7 +14576,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f>EDATE(A474,1)</f>
         <v>41334</v>
@@ -14602,7 +14601,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f t="shared" ref="A479:A495" si="20">EDATE(A478,1)</f>
         <v>41365</v>
@@ -14629,7 +14628,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>346</v>
@@ -14646,7 +14645,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f>EDATE(A479,1)</f>
         <v>41395</v>
@@ -14673,7 +14672,7 @@
         <v>41401</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>48</v>
@@ -14692,7 +14691,7 @@
         <v>41421</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>48</v>
@@ -14711,7 +14710,7 @@
         <v>41424</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>329</v>
@@ -14728,7 +14727,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f>EDATE(A481,1)</f>
         <v>41426</v>
@@ -14753,7 +14752,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f t="shared" si="20"/>
         <v>41456</v>
@@ -14778,7 +14777,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>69</v>
@@ -14795,7 +14794,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>351</v>
@@ -14812,7 +14811,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f>EDATE(A486,1)</f>
         <v>41487</v>
@@ -14837,7 +14836,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>352</v>
@@ -14854,7 +14853,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f>EDATE(A489,1)</f>
         <v>41518</v>
@@ -14879,7 +14878,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <f>EDATE(A491,1)</f>
         <v>41548</v>
@@ -14904,7 +14903,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>354</v>
@@ -14921,7 +14920,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f>EDATE(A492,1)</f>
         <v>41579</v>
@@ -14946,7 +14945,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f t="shared" si="20"/>
         <v>41609</v>
@@ -14971,7 +14970,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>348</v>
@@ -14991,7 +14990,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>180</v>
@@ -15011,7 +15010,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
         <v>359</v>
       </c>
@@ -15029,7 +15028,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A495,1)</f>
         <v>41640</v>
@@ -15056,7 +15055,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>69</v>
@@ -15073,7 +15072,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>48</v>
@@ -15092,7 +15091,7 @@
         <v>41677</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>288</v>
@@ -15109,7 +15108,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>361</v>
@@ -15126,7 +15125,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f>EDATE(A499,1)</f>
         <v>41671</v>
@@ -15151,7 +15150,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f t="shared" ref="A505:A525" si="21">EDATE(A504,1)</f>
         <v>41699</v>
@@ -15176,7 +15175,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>62</v>
@@ -15195,7 +15194,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>368</v>
@@ -15212,7 +15211,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f>EDATE(A505,1)</f>
         <v>41730</v>
@@ -15239,7 +15238,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>370</v>
@@ -15256,7 +15255,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f>EDATE(A508,1)</f>
         <v>41760</v>
@@ -15283,7 +15282,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>48</v>
@@ -15302,7 +15301,7 @@
         <v>41778</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>62</v>
@@ -15321,7 +15320,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>371</v>
@@ -15338,7 +15337,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <f>EDATE(A510,1)</f>
         <v>41791</v>
@@ -15365,7 +15364,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>374</v>
@@ -15382,7 +15381,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f>EDATE(A514,1)</f>
         <v>41821</v>
@@ -15409,7 +15408,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>73</v>
@@ -15426,7 +15425,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A516,1)</f>
         <v>41852</v>
@@ -15453,7 +15452,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>376</v>
@@ -15470,7 +15469,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>41883</v>
@@ -15497,7 +15496,7 @@
         <v>41886</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>377</v>
@@ -15514,7 +15513,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>41913</v>
@@ -15541,7 +15540,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>378</v>
@@ -15558,7 +15557,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f>EDATE(A522,1)</f>
         <v>41944</v>
@@ -15583,7 +15582,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f t="shared" si="21"/>
         <v>41974</v>
@@ -15610,7 +15609,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>380</v>
@@ -15630,7 +15629,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="48" t="s">
         <v>383</v>
       </c>
@@ -15648,7 +15647,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <f>EDATE(A525,1)</f>
         <v>42005</v>
@@ -15673,7 +15672,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>134</v>
@@ -15690,7 +15689,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <f>EDATE(A528,1)</f>
         <v>42036</v>
@@ -15717,7 +15716,7 @@
         <v>42063</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>386</v>
@@ -15734,7 +15733,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f>EDATE(A530,1)</f>
         <v>42064</v>
@@ -15761,7 +15760,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>187</v>
@@ -15778,7 +15777,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <f>EDATE(A532,1)</f>
         <v>42095</v>
@@ -15803,7 +15802,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>365</v>
@@ -15820,7 +15819,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>187</v>
@@ -15837,7 +15836,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f>EDATE(A534,1)</f>
         <v>42125</v>
@@ -15862,7 +15861,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <f t="shared" ref="A538:A539" si="22">EDATE(A537,1)</f>
         <v>42156</v>
@@ -15887,7 +15886,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <f t="shared" si="22"/>
         <v>42186</v>
@@ -15914,7 +15913,7 @@
         <v>42201</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>388</v>
@@ -15931,7 +15930,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f>EDATE(A539,1)</f>
         <v>42217</v>
@@ -15958,7 +15957,7 @@
         <v>42222</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>62</v>
@@ -15977,7 +15976,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>166</v>
@@ -15994,7 +15993,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f>EDATE(A541,1)</f>
         <v>42248</v>
@@ -16017,7 +16016,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>48</v>
@@ -16036,7 +16035,7 @@
         <v>42269</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>389</v>
@@ -16053,7 +16052,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <f>EDATE(A544,1)</f>
         <v>42278</v>
@@ -16080,7 +16079,7 @@
         <v>42291</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>278</v>
@@ -16097,7 +16096,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f>EDATE(A547,1)</f>
         <v>42309</v>
@@ -16124,7 +16123,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>134</v>
@@ -16141,7 +16140,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <f>EDATE(A549,1)</f>
         <v>42339</v>
@@ -16166,7 +16165,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>394</v>
@@ -16183,7 +16182,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="48" t="s">
         <v>385</v>
       </c>
@@ -16201,7 +16200,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <f>EDATE(A551,1)</f>
         <v>42370</v>
@@ -16228,7 +16227,7 @@
         <v>42383</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>395</v>
@@ -16245,7 +16244,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>395</v>
@@ -16262,7 +16261,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>288</v>
@@ -16279,7 +16278,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>399</v>
@@ -16296,7 +16295,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <f>EDATE(A554,1)</f>
         <v>42401</v>
@@ -16321,7 +16320,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f t="shared" ref="A560:A577" si="23">EDATE(A559,1)</f>
         <v>42430</v>
@@ -16346,7 +16345,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <f t="shared" si="23"/>
         <v>42461</v>
@@ -16373,7 +16372,7 @@
         <v>42472</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>48</v>
@@ -16392,7 +16391,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>402</v>
@@ -16409,7 +16408,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f>EDATE(A561,1)</f>
         <v>42491</v>
@@ -16434,7 +16433,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f t="shared" si="23"/>
         <v>42522</v>
@@ -16459,7 +16458,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>403</v>
@@ -16476,7 +16475,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f>EDATE(A565,1)</f>
         <v>42552</v>
@@ -16497,7 +16496,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <f t="shared" si="23"/>
         <v>42583</v>
@@ -16524,7 +16523,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>62</v>
@@ -16543,7 +16542,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>355</v>
@@ -16560,7 +16559,7 @@
         <v>42618</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>404</v>
@@ -16577,7 +16576,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <f>EDATE(A568,1)</f>
         <v>42614</v>
@@ -16604,7 +16603,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>62</v>
@@ -16623,7 +16622,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>62</v>
@@ -16642,7 +16641,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>389</v>
@@ -16659,7 +16658,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f>EDATE(A572,1)</f>
         <v>42644</v>
@@ -16684,7 +16683,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <f t="shared" si="23"/>
         <v>42675</v>
@@ -16711,7 +16710,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>406</v>
@@ -16728,7 +16727,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <f>EDATE(A577,1)</f>
         <v>42705</v>
@@ -16755,7 +16754,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="48" t="s">
         <v>414</v>
       </c>
@@ -16773,7 +16772,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <f>EDATE(A579,1)</f>
         <v>42736</v>
@@ -16800,7 +16799,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>417</v>
@@ -16817,7 +16816,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>418</v>
@@ -16839,7 +16838,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>418</v>
@@ -16861,7 +16860,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <f>EDATE(A581,1)</f>
         <v>42767</v>
@@ -16886,7 +16885,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <f t="shared" ref="A586:A610" si="24">EDATE(A585,1)</f>
         <v>42795</v>
@@ -16913,7 +16912,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>355</v>
@@ -16930,7 +16929,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>48</v>
@@ -16949,7 +16948,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>42826</v>
@@ -16974,7 +16973,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <f t="shared" si="24"/>
         <v>42856</v>
@@ -17001,7 +17000,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <f t="shared" si="24"/>
         <v>42887</v>
@@ -17028,7 +17027,7 @@
         <v>42913</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>299</v>
@@ -17045,7 +17044,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <f>EDATE(A591,1)</f>
         <v>42917</v>
@@ -17072,7 +17071,7 @@
         <v>42934</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>48</v>
@@ -17091,7 +17090,7 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>48</v>
@@ -17110,7 +17109,7 @@
         <v>42969</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <f>EDATE(A593,1)</f>
         <v>42948</v>
@@ -17137,7 +17136,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>69</v>
@@ -17154,7 +17153,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>425</v>
@@ -17171,7 +17170,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <f>EDATE(A596,1)</f>
         <v>42979</v>
@@ -17198,7 +17197,7 @@
         <v>42985</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>48</v>
@@ -17217,7 +17216,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>48</v>
@@ -17236,7 +17235,7 @@
         <v>43005</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>48</v>
@@ -17255,7 +17254,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <f>EDATE(A599,1)</f>
         <v>43009</v>
@@ -17282,7 +17281,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>48</v>
@@ -17301,7 +17300,7 @@
         <v>43031</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>50</v>
@@ -17320,7 +17319,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>48</v>
@@ -17339,7 +17338,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>62</v>
@@ -17358,7 +17357,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>428</v>
@@ -17375,7 +17374,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <f>EDATE(A603,1)</f>
         <v>43040</v>
@@ -17396,7 +17395,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <f t="shared" si="24"/>
         <v>43070</v>
@@ -17423,7 +17422,7 @@
         <v>43098</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -17445,7 +17444,7 @@
         <v>43076</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>62</v>
@@ -17467,7 +17466,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>285</v>
@@ -17487,7 +17486,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="48" t="s">
         <v>427</v>
       </c>
@@ -17505,7 +17504,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <f>EDATE(A610,1)</f>
         <v>43101</v>
@@ -17532,7 +17531,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>348</v>
@@ -17552,7 +17551,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>432</v>
@@ -17572,7 +17571,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <f>EDATE(A615,1)</f>
         <v>43132</v>
@@ -17593,7 +17592,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <f t="shared" ref="A619:A634" si="25">EDATE(A618,1)</f>
         <v>43160</v>
@@ -17620,7 +17619,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <f t="shared" si="25"/>
         <v>43191</v>
@@ -17641,7 +17640,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <f t="shared" si="25"/>
         <v>43221</v>
@@ -17666,7 +17665,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
         <v>438</v>
@@ -17683,7 +17682,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="53"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <f>EDATE(A621,1)</f>
         <v>43252</v>
@@ -17710,7 +17709,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>400</v>
@@ -17727,7 +17726,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <f>EDATE(A623,1)</f>
         <v>43282</v>
@@ -17754,7 +17753,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>439</v>
@@ -17771,7 +17770,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <f>EDATE(A625,1)</f>
         <v>43313</v>
@@ -17798,7 +17797,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>50</v>
@@ -17817,7 +17816,7 @@
         <v>43347</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>445</v>
@@ -17834,7 +17833,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <f>EDATE(A627,1)</f>
         <v>43344</v>
@@ -17859,7 +17858,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <f t="shared" si="25"/>
         <v>43374</v>
@@ -17886,7 +17885,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>441</v>
@@ -17903,7 +17902,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <f>EDATE(A631,1)</f>
         <v>43405</v>
@@ -17928,7 +17927,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <f t="shared" si="25"/>
         <v>43435</v>
@@ -17955,7 +17954,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>48</v>
@@ -17977,7 +17976,7 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>105</v>
@@ -17997,7 +17996,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20" t="s">
         <v>225</v>
@@ -18014,7 +18013,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="48" t="s">
         <v>443</v>
       </c>
@@ -18032,7 +18031,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <f>EDATE(A634,1)</f>
         <v>43466</v>
@@ -18057,7 +18056,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>348</v>
@@ -18074,7 +18073,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="41">
         <f>EDATE(A639,1)</f>
         <v>43497</v>
@@ -18095,7 +18094,7 @@
       <c r="J641" s="12"/>
       <c r="K641" s="15"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="41">
         <f t="shared" ref="A642:A655" si="26">EDATE(A641,1)</f>
         <v>43525</v>
@@ -18120,7 +18119,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>355</v>
@@ -18137,7 +18136,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>48</v>
@@ -18156,7 +18155,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="41">
         <f>EDATE(A642,1)</f>
         <v>43556</v>
@@ -18177,7 +18176,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="41">
         <f t="shared" si="26"/>
         <v>43586</v>
@@ -18198,7 +18197,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="41">
         <f t="shared" si="26"/>
         <v>43617</v>
@@ -18225,7 +18224,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="41">
         <f t="shared" si="26"/>
         <v>43647</v>
@@ -18252,7 +18251,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="41">
         <f t="shared" si="26"/>
         <v>43678</v>
@@ -18279,7 +18278,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>288</v>
@@ -18296,7 +18295,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="41">
         <f>EDATE(A649,1)</f>
         <v>43709</v>
@@ -18323,7 +18322,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20" t="s">
         <v>455</v>
@@ -18342,7 +18341,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="41">
         <f>EDATE(A651,1)</f>
         <v>43739</v>
@@ -18363,7 +18362,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="41">
         <f>EDATE(A653,1)</f>
         <v>43770</v>
@@ -18384,7 +18383,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="41">
         <f t="shared" si="26"/>
         <v>43800</v>
@@ -18411,7 +18410,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="48" t="s">
         <v>457</v>
       </c>
@@ -18429,7 +18428,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <f>EDATE(A655,1)</f>
         <v>43831</v>
@@ -18454,7 +18453,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>348</v>
@@ -18471,7 +18470,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <f>EDATE(A657,1)</f>
         <v>43862</v>
@@ -18492,7 +18491,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <f t="shared" ref="A660:A667" si="27">EDATE(A659,1)</f>
         <v>43891</v>
@@ -18513,7 +18512,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <f t="shared" si="27"/>
         <v>43922</v>
@@ -18534,7 +18533,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <f t="shared" si="27"/>
         <v>43952</v>
@@ -18555,7 +18554,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <f t="shared" si="27"/>
         <v>43983</v>
@@ -18580,7 +18579,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <f t="shared" si="27"/>
         <v>44013</v>
@@ -18601,7 +18600,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <f t="shared" si="27"/>
         <v>44044</v>
@@ -18626,7 +18625,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <f t="shared" si="27"/>
         <v>44075</v>
@@ -18647,7 +18646,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <f t="shared" si="27"/>
         <v>44105</v>
@@ -18674,7 +18673,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>50</v>
@@ -18693,7 +18692,7 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <f>EDATE(A667,1)</f>
         <v>44136</v>
@@ -18714,7 +18713,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <f>EDATE(A669,1)</f>
         <v>44166</v>
@@ -18739,7 +18738,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="48" t="s">
         <v>464</v>
       </c>
@@ -18757,7 +18756,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <f>EDATE(A670,1)</f>
         <v>44197</v>
@@ -18782,7 +18781,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <f>EDATE(A672,1)</f>
         <v>44228</v>
@@ -18803,7 +18802,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <f t="shared" ref="A674:A682" si="28">EDATE(A673,1)</f>
         <v>44256</v>
@@ -18824,7 +18823,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <f t="shared" si="28"/>
         <v>44287</v>
@@ -18845,7 +18844,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <f t="shared" si="28"/>
         <v>44317</v>
@@ -18866,7 +18865,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <f t="shared" si="28"/>
         <v>44348</v>
@@ -18887,7 +18886,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <f t="shared" si="28"/>
         <v>44378</v>
@@ -18912,7 +18911,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>355</v>
@@ -18929,7 +18928,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <f>EDATE(A678,1)</f>
         <v>44409</v>
@@ -18950,7 +18949,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <f t="shared" si="28"/>
         <v>44440</v>
@@ -18971,7 +18970,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <f t="shared" si="28"/>
         <v>44470</v>
@@ -18996,7 +18995,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <f>EDATE(A682,1)</f>
         <v>44501</v>
@@ -19023,7 +19022,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <f>EDATE(A683,1)</f>
         <v>44531</v>
@@ -19048,7 +19047,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="48" t="s">
         <v>471</v>
       </c>
@@ -19066,7 +19065,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <f>EDATE(A684,1)</f>
         <v>44562</v>
@@ -19087,7 +19086,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <f>EDATE(A686,1)</f>
         <v>44593</v>
@@ -19108,7 +19107,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <f>EDATE(A687,1)</f>
         <v>44621</v>
@@ -19131,7 +19130,7 @@
       <c r="J688" s="12"/>
       <c r="K688" s="15"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
         <v>69</v>
@@ -19149,7 +19148,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <f>EDATE(A688,1)</f>
         <v>44652</v>
@@ -19170,7 +19169,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <f>EDATE(A690,1)</f>
         <v>44682</v>
@@ -19191,7 +19190,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <f t="shared" ref="A692:A693" si="29">EDATE(A691,1)</f>
         <v>44713</v>
@@ -19212,7 +19211,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <f t="shared" si="29"/>
         <v>44743</v>
@@ -19233,7 +19232,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <f>EDATE(A693,1)</f>
         <v>44774</v>
@@ -19258,7 +19257,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>69</v>
@@ -19278,7 +19277,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>44805</v>
       </c>
@@ -19302,7 +19301,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>44835</v>
       </c>
@@ -19322,7 +19321,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>44866</v>
       </c>
@@ -19342,7 +19341,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>44896</v>
       </c>
@@ -19368,7 +19367,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="48" t="s">
         <v>473</v>
       </c>
@@ -19386,7 +19385,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <v>44927</v>
       </c>
@@ -19406,7 +19405,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <v>44958</v>
       </c>
@@ -19430,7 +19429,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="15" t="s">
         <v>355</v>
@@ -19450,7 +19449,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>44986</v>
       </c>
@@ -19474,29 +19473,33 @@
         <v>478</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>45017</v>
       </c>
       <c r="B705" s="20"/>
-      <c r="C705" s="13"/>
+      <c r="C705" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D705" s="39"/>
       <c r="E705" s="9"/>
       <c r="F705" s="20"/>
-      <c r="G705" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G705" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H705" s="39"/>
       <c r="I705" s="9"/>
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>45047</v>
       </c>
-      <c r="B706" s="20"/>
+      <c r="B706" s="20" t="s">
+        <v>355</v>
+      </c>
       <c r="C706" s="13"/>
       <c r="D706" s="39"/>
       <c r="E706" s="9"/>
@@ -19508,9 +19511,11 @@
       <c r="H706" s="39"/>
       <c r="I706" s="9"/>
       <c r="J706" s="11"/>
-      <c r="K706" s="20"/>
-    </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K706" s="50">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>45078</v>
       </c>
@@ -19528,7 +19533,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>45108</v>
       </c>
@@ -19546,7 +19551,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <v>45139</v>
       </c>
@@ -19564,7 +19569,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <v>45170</v>
       </c>
@@ -19582,7 +19587,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>45200</v>
       </c>
@@ -19600,7 +19605,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
         <v>45231</v>
       </c>
@@ -19618,7 +19623,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>45261</v>
       </c>
@@ -19636,7 +19641,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>45292</v>
       </c>
@@ -19654,7 +19659,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>45323</v>
       </c>
@@ -19672,7 +19677,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
         <v>45352</v>
       </c>
@@ -19690,7 +19695,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
         <v>45383</v>
       </c>
@@ -19708,7 +19713,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
         <v>45413</v>
       </c>
@@ -19726,7 +19731,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
         <v>45444</v>
       </c>
@@ -19744,7 +19749,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
         <v>45474</v>
       </c>
@@ -19762,7 +19767,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
         <v>45505</v>
       </c>
@@ -19780,7 +19785,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
         <v>45536</v>
       </c>
@@ -19798,7 +19803,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
         <v>45566</v>
       </c>
@@ -19816,7 +19821,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
         <v>45597</v>
       </c>
@@ -19834,7 +19839,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
         <v>45627</v>
       </c>
@@ -19852,7 +19857,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
         <v>45658</v>
       </c>
@@ -19870,7 +19875,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
         <v>45689</v>
       </c>
@@ -19888,7 +19893,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
         <v>45717</v>
       </c>
@@ -19906,7 +19911,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
         <v>45748</v>
       </c>
@@ -19924,7 +19929,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
         <v>45778</v>
       </c>
@@ -19942,7 +19947,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
         <v>45809</v>
       </c>
@@ -19960,7 +19965,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
         <v>45839</v>
       </c>
@@ -19978,7 +19983,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
         <v>45870</v>
       </c>
@@ -20011,10 +20016,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20040,7 +20045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20048,21 +20053,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -20075,7 +20080,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20104,7 +20109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.58299999999999996</v>
       </c>
@@ -20130,17 +20135,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20161,7 +20166,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20188,7 +20193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20214,7 +20219,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20240,7 +20245,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20266,7 +20271,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20292,7 +20297,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20318,7 +20323,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20344,7 +20349,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20370,7 +20375,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20390,7 +20395,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20410,7 +20415,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20430,7 +20435,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20451,7 +20456,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20472,7 +20477,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20493,7 +20498,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20514,7 +20519,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20535,7 +20540,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20556,7 +20561,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20577,7 +20582,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20598,7 +20603,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20619,7 +20624,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20640,7 +20645,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20661,7 +20666,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20682,7 +20687,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20703,7 +20708,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20724,7 +20729,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20745,7 +20750,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20766,7 +20771,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20787,7 +20792,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20808,7 +20813,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20829,7 +20834,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20850,7 +20855,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20859,7 +20864,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20868,7 +20873,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20877,7 +20882,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20886,7 +20891,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20895,7 +20900,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20904,7 +20909,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20913,7 +20918,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20922,7 +20927,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20931,7 +20936,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20940,7 +20945,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20949,7 +20954,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20958,7 +20963,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20967,7 +20972,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20976,7 +20981,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20985,7 +20990,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20994,7 +20999,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21003,7 +21008,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21012,7 +21017,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21021,7 +21026,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21030,7 +21035,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21039,7 +21044,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21048,7 +21053,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21057,7 +21062,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21066,7 +21071,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21075,7 +21080,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21084,7 +21089,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21093,7 +21098,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21102,7 +21107,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21111,7 +21116,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
